--- a/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,74 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -126,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,45 +466,45 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="F1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -569,427 +512,453 @@
       <c r="F3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>123,39%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,17%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>1.881503495125246</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>-0.8339029906102648</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.102869004542341</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1891996901610057</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 4,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 1,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 442,79</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-43,45; 48,94</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-0.1118551723244117</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-2.766157504780769</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2560171848243653</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4977548239298878</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.175698529131917</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.124459169054022</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.733770794479821</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3691361037102556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>84,98%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>29,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 3,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 3,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-33,58; 383,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-29,94; 140,42</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>1.552914677310765</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1.471528862529306</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.124736079560533</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3775525936282508</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-0.5345118486495046</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-1.490090830883643</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.392263844727685</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2849905897278794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.567568189964137</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>4.025502423747248</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.844887689473525</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.572402771883548</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>696,75%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>21,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 11,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 4,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>61,26; 3068,17</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-25,72; 100,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>6.150871716661236</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.691442208191515</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.015347396247889</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2968006038000509</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2.583682961568023</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-1.382479131354987</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.733027085018803</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2333237716535909</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>11.9773642783995</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>5.619467099536565</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>57.73639327877773</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.143084754429583</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>59,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>90,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 4,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 6,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 199,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>29,03; 167,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>2.273660145418703</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>4.460070703002374</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7363846308662668</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.9773029609375864</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-0.4846667620153428</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.049561733986094</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1439417219655411</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3235099286790207</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>5.096568433286802</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>6.868418659316797</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.490489015485803</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.894024820565344</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>262,23%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>213,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 8,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 10,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>53,9; 765,56</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>89,3; 517,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>4.30230454573315</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>7.456663885529363</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.488491010944381</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2.205720136398134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1.294690975642</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>4.248787108512556</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.3833487139505454</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.8214983150454688</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>8.655385630652276</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>10.46353568243563</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>19.73828752155372</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>4.622121384481151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>666,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 39,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 12,73</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>185,08; 2775,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>11.48417037376205</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>10.33139171006948</v>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.287894792943301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>7.470193113762759</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>1.580270559174439</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>45.18458987086746</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>13.41071036654838</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>24.48792060057927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>138,78%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>80,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 4,09</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 4,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>65,68; 250,75</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>51,43; 119,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>2.72393848177239</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>3.549671109010519</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.502628786489764</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.8186657814703719</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1.551442212662921</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>2.517298791371974</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.665312185281522</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5023043152199312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>4.058549606002793</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>4.754408754624841</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.861366167156652</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.22653257953802</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -997,16 +966,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
